--- a/MapGenerator/Infostände.xlsx
+++ b/MapGenerator/Infostände.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\maps\MapGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Grüne\maps\MapGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451DAD82-880E-46C0-9E7A-E12CB0778C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D736C5-26FD-4A1C-864F-26BEF2A1C7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AFB3E408-383F-438A-91D5-4116BE5462C2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -639,6 +639,33 @@
   </si>
   <si>
     <t>50.838966</t>
+  </si>
+  <si>
+    <t>12.920620</t>
+  </si>
+  <si>
+    <t>50.831748</t>
+  </si>
+  <si>
+    <t>12.918021</t>
+  </si>
+  <si>
+    <t>genehmigt zu früheren Wahlen</t>
+  </si>
+  <si>
+    <t>Vorschlag von Kai</t>
+  </si>
+  <si>
+    <t>50.833041</t>
+  </si>
+  <si>
+    <t>50.814175</t>
+  </si>
+  <si>
+    <t>12.955814</t>
+  </si>
+  <si>
+    <t>Muss überprüft werden.</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1139,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1882,6 +1909,9 @@
       </c>
     </row>
     <row r="30" spans="1:8">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>177</v>
       </c>
@@ -1905,6 +1935,9 @@
       </c>
     </row>
     <row r="31" spans="1:8">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>177</v>
       </c>
@@ -1928,6 +1961,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>177</v>
       </c>
@@ -1950,7 +1986,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="1:8">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
       <c r="B33" t="s">
         <v>177</v>
       </c>
@@ -1973,49 +2012,118 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="2:8">
+    <row r="34" spans="1:8">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="1:8">
       <c r="D38" s="19"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="1:8">
       <c r="D39" s="19"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="1:8">
       <c r="D40" s="19"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="1:8">
       <c r="D41" s="19"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="1:8">
       <c r="D42" s="19"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="1:8">
       <c r="D43" s="19"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="1:8">
       <c r="D44" s="19"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="1:8">
       <c r="D45" s="19"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="1:8">
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="1:8">
       <c r="D47" s="19"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="1:8">
       <c r="D48" s="19"/>
     </row>
     <row r="49" spans="4:4">
